--- a/xlsx/国家学_intext.xlsx
+++ b/xlsx/国家学_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="497">
   <si>
     <t>国家学</t>
   </si>
@@ -29,7 +29,7 @@
     <t>政治学 (亚里士多德)</t>
   </si>
   <si>
-    <t>政策_政策_政治學_国家学</t>
+    <t>政策_政策_政治学_国家学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8%E5%9F%BA%E6%9C%AC%E4%B8%BB%E9%A1%8C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>政治學基本主題列表</t>
+    <t>政治学基本主题列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6_(%E6%AD%90%E6%B4%B2)</t>
   </si>
   <si>
-    <t>封建制度 (歐洲)</t>
+    <t>封建制度 (欧洲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E6%94%BF%E4%BD%93</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%93%A1%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>委員會制</t>
+    <t>委员会制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%8B%B1%E6%94%BF%E6%B2%BB</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>國際關係理論</t>
+    <t>国际关系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BE%83%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>司法機構</t>
+    <t>司法机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%80%89%E4%B8%BE%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治心理學</t>
+    <t>政治心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Biology_and_political_orientation</t>
@@ -341,19 +341,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>政治體制</t>
+    <t>政治体制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會科學</t>
+    <t>社会科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%98%E8%80%85</t>
   </si>
   <si>
-    <t>記者</t>
+    <t>记者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%9B%8A%E9%9B%86%E5%9B%A2</t>
@@ -371,9 +371,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>政黨</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%94%BF%E5%BA%9C%E7%BB%84%E7%BB%87</t>
   </si>
   <si>
@@ -383,19 +380,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E9%A9%97</t>
   </si>
   <si>
-    <t>經驗</t>
+    <t>经验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E5%80%BC</t>
   </si>
   <si>
-    <t>價值</t>
+    <t>价值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%BA%AB</t>
   </si>
   <si>
-    <t>智庫</t>
+    <t>智库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%84%8F%E6%B5%8B%E9%AA%8C</t>
@@ -413,7 +410,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A6%8F%E5%88%A9</t>
   </si>
   <si>
-    <t>社會福利</t>
+    <t>社会福利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A</t>
@@ -425,9 +422,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E7%A7%91%E5%AD%A6</t>
   </si>
   <si>
-    <t>社会科学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E7%90%86%E5%AD%A6</t>
   </si>
   <si>
@@ -437,13 +431,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>歷史</t>
+    <t>历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%95%99%E5%90%88%E4%B8%80</t>
@@ -455,19 +449,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%8B%89%E5%9C%96</t>
   </si>
   <si>
-    <t>柏拉圖</t>
+    <t>柏拉图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%87%8C%E5%A3%AB%E5%A4%9A%E5%BE%B7</t>
   </si>
   <si>
-    <t>亞里士多德</t>
+    <t>亚里士多德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E7%BE%85%E5%A4%9A%E5%BE%B7</t>
   </si>
   <si>
-    <t>希羅多德</t>
+    <t>希罗多德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E9%A9%AC</t>
@@ -497,21 +491,18 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>文學</t>
+    <t>文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>哲學</t>
+    <t>哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%8B%89%E5%9B%BE</t>
   </si>
   <si>
-    <t>柏拉图</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%83%B3%E5%9B%BD</t>
   </si>
   <si>
@@ -521,19 +512,16 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E9%87%8C%E5%A3%AB%E5%A4%9A%E5%BE%B7</t>
   </si>
   <si>
-    <t>亚里士多德</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8_(%E4%BA%9E%E9%87%8C%E6%96%AF%E5%A4%9A%E5%BE%B7)</t>
   </si>
   <si>
-    <t>政治學 (亞里斯多德)</t>
+    <t>政治学 (亚里斯多德)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC</t>
   </si>
   <si>
-    <t>羅馬</t>
+    <t>罗马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A4%9A%E8%91%9B%E5%AD%A6%E6%B4%BE</t>
@@ -557,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E5%A1%94%E5%85%8B</t>
   </si>
   <si>
-    <t>普魯塔克</t>
+    <t>普鲁塔克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%88%B6</t>
@@ -581,9 +569,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6</t>
   </si>
   <si>
-    <t>国家</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E6%B3%95</t>
   </si>
   <si>
@@ -611,13 +596,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>神學</t>
+    <t>神学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E7%88%B6%E7%A5%9E%E5%AD%A6</t>
@@ -653,19 +638,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>教會</t>
+    <t>教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9D%B1</t>
   </si>
   <si>
-    <t>中東</t>
+    <t>中东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD</t>
   </si>
   <si>
-    <t>伊斯蘭</t>
+    <t>伊斯兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%8E%9B%E5%B0%94%C2%B7%E6%B5%B7%E4%BA%9A%E5%A7%86</t>
@@ -677,7 +662,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E7%88%BE%E5%A4%9A%E8%A5%BF</t>
   </si>
   <si>
-    <t>菲爾多西</t>
+    <t>菲尔多西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%BB%B4%E6%A3%AE%E7%BA%B3</t>
@@ -725,7 +710,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>啟蒙時代</t>
+    <t>启蒙时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E5%9B%BD%E5%AE%B6</t>
@@ -743,7 +728,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%A5%91%E7%B4%84</t>
   </si>
   <si>
-    <t>社會契約</t>
+    <t>社会契约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E6%9D%83%E5%88%A9</t>
@@ -809,7 +794,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E8%B3%93%E5%A1%9E</t>
   </si>
   <si>
-    <t>斯賓塞</t>
+    <t>斯宾塞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%AF%86%E5%B0%94</t>
@@ -839,13 +824,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟學</t>
+    <t>经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
@@ -863,9 +848,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
   </si>
   <si>
-    <t>经济学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%A6</t>
   </si>
   <si>
@@ -893,19 +875,16 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>行為主義</t>
+    <t>行为主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>人類學</t>
+    <t>人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%9F%E8%AE%A1%E5%AD%A6</t>
@@ -935,15 +914,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%85%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>多元主義</t>
+    <t>多元主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%A6</t>
   </si>
   <si>
-    <t>哲学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A2%E8%80%8C%E4%B8%8A</t>
   </si>
   <si>
@@ -953,7 +929,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%BE%A9</t>
   </si>
   <si>
-    <t>正義</t>
+    <t>正义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%80%A7</t>
@@ -989,9 +965,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E4%B8%BA%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>行为主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E5%AD%A6%E6%A8%A1%E5%9E%8B</t>
   </si>
   <si>
@@ -1049,7 +1022,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%80%A7%E9%81%B8%E6%93%87</t>
   </si>
   <si>
-    <t>理性選擇</t>
+    <t>理性选择</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E5%B8%83%E5%9D%8E%E5%8D%97</t>
@@ -1061,7 +1034,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>政治聯盟</t>
+    <t>政治联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%BC%88%E7%90%86%E8%AE%BA</t>
@@ -1073,7 +1046,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>結構主義</t>
+    <t>结构主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -1091,7 +1064,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A7%80%E5%BF%B5</t>
   </si>
   <si>
-    <t>觀念</t>
+    <t>观念</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A</t>
@@ -1109,21 +1082,15 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BC%83%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>比較政治</t>
+    <t>比较政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E4%BD%93%E5%88%B6</t>
   </si>
   <si>
-    <t>政治体制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
   </si>
   <si>
@@ -1133,19 +1100,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AD%98%E5%BD%A2%E6%85%8B</t>
   </si>
   <si>
-    <t>意識形態</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>恐怖主義</t>
+    <t>恐怖主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>經濟</t>
+    <t>经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
@@ -1193,7 +1157,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8%E7%A0%94%E7%A9%B6%E4%B8%BB%E9%A1%8C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>政治學研究主題列表</t>
+    <t>政治学研究主题列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E5%8C%97%E5%B8%82</t>
@@ -1205,7 +1169,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%B0%91%E6%9B%B8%E5%B1%80</t>
   </si>
   <si>
-    <t>三民書局</t>
+    <t>三民书局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%A8%9C%C2%B7%E9%98%BF%E4%BC%A6%E7%89%B9</t>
@@ -1217,79 +1181,67 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%89%98%C2%B7%E9%A6%AE%C2%B7%E4%BF%BE%E6%96%AF%E9%BA%A5</t>
   </si>
   <si>
-    <t>奧托·馮·俾斯麥</t>
+    <t>奥托·冯·俾斯麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BE%94%E5%B8%95%E6%96%AF</t>
   </si>
   <si>
-    <t>龔帕斯</t>
+    <t>龚帕斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E6%9B%BC%C2%B7%E5%9F%BA%E7%88%BE</t>
   </si>
   <si>
-    <t>吉曼·基爾</t>
+    <t>吉曼·基尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%96%AF%C2%B7%E9%9F%8B%E4%BC%AF</t>
   </si>
   <si>
-    <t>馬克斯·韋伯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E6%BE%A4%E6%9D%B1</t>
   </si>
   <si>
-    <t>毛澤東</t>
+    <t>毛泽东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>地理學</t>
+    <t>地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>人文地理學</t>
+    <t>人文地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>環境地理學</t>
+    <t>环境地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>歷史學</t>
+    <t>历史学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>法學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>國際關係</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E5%AD%B8</t>
   </si>
   <si>
-    <t>公共行政學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA%E5%AD%B8</t>
   </si>
   <si>
-    <t>犯罪學</t>
+    <t>犯罪学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%AD%A6</t>
@@ -1301,55 +1253,52 @@
     <t>https://zh.wikipedia.org/wiki/%E9%84%89%E6%9D%91%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>鄉村社會學</t>
+    <t>乡村社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>心理學</t>
+    <t>心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會心理學</t>
+    <t>社会心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E5%AD%A6</t>
   </si>
   <si>
-    <t>人类学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4%E5%AD%B8</t>
   </si>
   <si>
-    <t>考古學</t>
+    <t>考古学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E5%AD%B8</t>
   </si>
   <si>
-    <t>語言學</t>
+    <t>语言学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E8%88%87%E5%8B%95%E7%89%A9%E9%97%9C%E4%BF%82%E5%AD%B8</t>
   </si>
   <si>
-    <t>人與動物關係學</t>
+    <t>人与动物关系学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%80%E5%9F%9F%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>區域研究</t>
+    <t>区域研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>商學</t>
+    <t>商学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E7%A5%9E%E7%BB%8F%E7%A7%91%E5%AD%A6</t>
@@ -1361,13 +1310,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>認知科學</t>
+    <t>认知科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%92%AD%E5%AD%B8</t>
   </si>
   <si>
-    <t>傳播學</t>
+    <t>传播学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Community_studies</t>
@@ -1391,7 +1340,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>教育學</t>
+    <t>教育学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Environmental_social_science</t>
@@ -1433,7 +1382,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>人類生態學</t>
+    <t>人类生态学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E5%AD%A6</t>
@@ -1445,19 +1394,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>國際研究</t>
+    <t>国际研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E9%AB%94%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>媒體研究</t>
+    <t>媒体研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>科學哲學</t>
+    <t>科学哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%93%B2%E5%AD%A6</t>
@@ -1481,37 +1430,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82%E8%A6%8F%E5%8A%83</t>
   </si>
   <si>
-    <t>城市規劃</t>
+    <t>城市规划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治生態學</t>
+    <t>政治生态学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%9B%E7%94%9F</t>
   </si>
   <si>
-    <t>公共衛生</t>
+    <t>公共卫生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%80%E5%9F%9F%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>區域經濟學</t>
+    <t>区域经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%8A%80%E8%88%87%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>科技與社會</t>
+    <t>科技与社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>科學研究</t>
+    <t>科学研究</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Geisteswissenschaft</t>
@@ -1523,13 +1472,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>人文科學</t>
+    <t>人文科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1541,13 +1490,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
@@ -3609,7 +3558,7 @@
         <v>117</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3635,10 +3584,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3664,10 +3613,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>4</v>
@@ -3693,10 +3642,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -3722,10 +3671,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3751,10 +3700,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3780,10 +3729,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3809,10 +3758,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3838,10 +3787,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3867,10 +3816,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3896,10 +3845,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3925,10 +3874,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>16</v>
@@ -3954,10 +3903,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>6</v>
@@ -3983,10 +3932,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -4012,10 +3961,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>3</v>
@@ -4041,10 +3990,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>5</v>
@@ -4070,10 +4019,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4099,10 +4048,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4128,10 +4077,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4157,10 +4106,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4186,10 +4135,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4215,10 +4164,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4244,10 +4193,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>3</v>
@@ -4273,10 +4222,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4302,10 +4251,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4331,10 +4280,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="G84" t="n">
         <v>4</v>
@@ -4360,10 +4309,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>38</v>
@@ -4389,10 +4338,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>5</v>
@@ -4418,10 +4367,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4447,10 +4396,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4476,10 +4425,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4505,10 +4454,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4534,10 +4483,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -4563,10 +4512,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4592,10 +4541,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -4621,10 +4570,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="G94" t="n">
         <v>12</v>
@@ -4650,10 +4599,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -4679,10 +4628,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4708,10 +4657,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G97" t="n">
         <v>5</v>
@@ -4737,10 +4686,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G98" t="n">
         <v>4</v>
@@ -4766,10 +4715,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4795,10 +4744,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4824,10 +4773,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4853,10 +4802,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4882,10 +4831,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4911,10 +4860,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F104" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -4940,10 +4889,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F105" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4969,10 +4918,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F106" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -4998,10 +4947,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F107" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5027,10 +4976,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F108" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -5056,10 +5005,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F109" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5085,10 +5034,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F110" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5114,10 +5063,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F111" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5143,10 +5092,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F112" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5172,10 +5121,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F113" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G113" t="n">
         <v>4</v>
@@ -5201,10 +5150,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F114" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5230,10 +5179,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F115" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5259,10 +5208,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F116" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5288,10 +5237,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F117" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5317,10 +5266,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F118" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5346,10 +5295,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F119" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5375,10 +5324,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F120" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5404,10 +5353,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F121" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5433,10 +5382,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F122" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5462,10 +5411,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F123" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G123" t="n">
         <v>4</v>
@@ -5520,10 +5469,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -5549,10 +5498,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5578,10 +5527,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5607,10 +5556,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5636,10 +5585,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5665,10 +5614,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5694,10 +5643,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5723,10 +5672,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5752,10 +5701,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5781,10 +5730,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5810,10 +5759,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5839,10 +5788,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5868,10 +5817,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G137" t="n">
         <v>6</v>
@@ -5897,10 +5846,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5926,10 +5875,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G139" t="n">
         <v>9</v>
@@ -5984,10 +5933,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F141" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6013,10 +5962,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F142" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G142" t="n">
         <v>4</v>
@@ -6042,10 +5991,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F143" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="G143" t="n">
         <v>4</v>
@@ -6071,10 +6020,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F144" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6100,10 +6049,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F145" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G145" t="n">
         <v>4</v>
@@ -6129,10 +6078,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F146" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G146" t="n">
         <v>3</v>
@@ -6158,10 +6107,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -6187,10 +6136,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6216,10 +6165,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F149" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -6245,10 +6194,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6274,10 +6223,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F151" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6303,10 +6252,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G152" t="n">
         <v>5</v>
@@ -6332,10 +6281,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F153" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G153" t="n">
         <v>3</v>
@@ -6361,10 +6310,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F154" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6390,10 +6339,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F155" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6419,10 +6368,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>160</v>
       </c>
       <c r="G156" t="n">
         <v>12</v>
@@ -6448,10 +6397,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F157" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6477,10 +6426,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F158" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6506,10 +6455,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F159" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6535,10 +6484,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F160" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G160" t="n">
         <v>13</v>
@@ -6564,10 +6513,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="F161" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="G161" t="n">
         <v>41</v>
@@ -6593,10 +6542,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F162" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6622,10 +6571,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F163" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -6651,10 +6600,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F164" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="G164" t="n">
         <v>7</v>
@@ -6680,10 +6629,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="F165" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -6709,10 +6658,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="F166" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="G166" t="n">
         <v>3</v>
@@ -6738,10 +6687,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="F167" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -6767,10 +6716,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F168" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6796,10 +6745,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="F169" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6825,10 +6774,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="F170" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="G170" t="n">
         <v>7</v>
@@ -6854,10 +6803,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="F171" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="G171" t="n">
         <v>8</v>
@@ -6883,10 +6832,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="F172" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -6912,10 +6861,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="F173" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="G173" t="n">
         <v>3</v>
@@ -6941,10 +6890,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="F174" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="G174" t="n">
         <v>6</v>
@@ -6970,10 +6919,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="F175" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6999,10 +6948,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="F176" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7028,10 +6977,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="F177" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7057,10 +7006,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="F178" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="G178" t="n">
         <v>3</v>
@@ -7086,10 +7035,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="F179" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="G179" t="n">
         <v>3</v>
@@ -7115,10 +7064,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="F180" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="G180" t="n">
         <v>16</v>
@@ -7144,10 +7093,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="F181" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="G181" t="n">
         <v>3</v>
@@ -7173,10 +7122,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F182" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G182" t="n">
         <v>16</v>
@@ -7202,10 +7151,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="F183" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -7231,10 +7180,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F184" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -7260,10 +7209,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="F185" t="s">
-        <v>366</v>
+        <v>108</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7289,10 +7238,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="F186" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="G186" t="n">
         <v>4</v>
@@ -7318,10 +7267,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="F187" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7347,10 +7296,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="F188" t="s">
-        <v>372</v>
+        <v>102</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7376,10 +7325,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="F189" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7405,10 +7354,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="F190" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="G190" t="n">
         <v>14</v>
@@ -7434,10 +7383,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="F191" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7463,10 +7412,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="F192" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7492,10 +7441,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="F193" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7521,10 +7470,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F194" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="G194" t="n">
         <v>38</v>
@@ -7550,10 +7499,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="F195" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7579,10 +7528,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F196" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7608,10 +7557,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="F197" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7695,10 +7644,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="F200" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7724,10 +7673,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="F201" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7753,10 +7702,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="F202" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7782,10 +7731,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="F203" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7811,10 +7760,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="F204" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7840,10 +7789,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="F205" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7869,10 +7818,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="F206" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7898,10 +7847,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="F207" t="s">
-        <v>406</v>
+        <v>263</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -7927,10 +7876,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="F208" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7956,10 +7905,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="F209" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7985,10 +7934,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="F210" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -8014,10 +7963,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="F211" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="G211" t="n">
         <v>8</v>
@@ -8043,10 +7992,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="F212" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -8072,10 +8021,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="F213" t="s">
-        <v>418</v>
+        <v>278</v>
       </c>
       <c r="G213" t="n">
         <v>3</v>
@@ -8101,10 +8050,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="F214" t="s">
-        <v>420</v>
+        <v>280</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8130,10 +8079,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="F215" t="s">
-        <v>422</v>
+        <v>54</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8159,10 +8108,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="F216" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8188,10 +8137,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="F217" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8217,10 +8166,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="F218" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8246,10 +8195,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="F219" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -8275,10 +8224,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="F220" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="G220" t="n">
         <v>17</v>
@@ -8304,10 +8253,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="F221" t="s">
-        <v>434</v>
+        <v>289</v>
       </c>
       <c r="G221" t="n">
         <v>3</v>
@@ -8333,10 +8282,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="F222" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8362,10 +8311,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="F223" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8391,10 +8340,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="F224" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8420,10 +8369,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="F225" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8449,10 +8398,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="F226" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8478,10 +8427,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="F227" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8507,10 +8456,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="F228" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8536,10 +8485,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="F229" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8565,10 +8514,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="F230" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8594,10 +8543,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="F231" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8623,10 +8572,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="F232" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8652,10 +8601,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="F233" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8681,10 +8630,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="F234" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8710,10 +8659,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="F235" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8739,10 +8688,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="F236" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8768,10 +8717,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="F237" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8797,10 +8746,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="F238" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8826,10 +8775,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="F239" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8855,10 +8804,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="F240" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8884,10 +8833,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="F241" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8913,10 +8862,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="F242" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8942,10 +8891,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="F243" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8971,10 +8920,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="F244" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9000,10 +8949,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="F245" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="G245" t="n">
         <v>5</v>
@@ -9029,10 +8978,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="F246" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9058,10 +9007,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="F247" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9087,10 +9036,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="F248" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9116,10 +9065,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="F249" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9145,10 +9094,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="F250" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9174,10 +9123,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="F251" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9203,10 +9152,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="F252" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9232,10 +9181,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="F253" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="G253" t="n">
         <v>2</v>
@@ -9261,10 +9210,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="F254" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9290,10 +9239,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="F255" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9319,10 +9268,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="F256" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="G256" t="n">
         <v>3</v>
@@ -9348,10 +9297,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="F257" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9377,10 +9326,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="F258" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9406,10 +9355,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
       <c r="F259" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9435,10 +9384,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="F260" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="G260" t="n">
         <v>5</v>
@@ -9464,10 +9413,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="F261" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
